--- a/public/data/lime/lime_table_madagascar.xlsx
+++ b/public/data/lime/lime_table_madagascar.xlsx
@@ -1264,13 +1264,13 @@
         <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>3.24</v>
+        <v>2.82</v>
       </c>
       <c r="E2" t="n">
-        <v>2.08</v>
+        <v>1.18</v>
       </c>
       <c r="F2" t="n">
-        <v>0.75</v>
+        <v>0.03</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1282,16 +1282,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.13</v>
+        <v>1.47</v>
       </c>
       <c r="K2" t="n">
-        <v>0.72</v>
+        <v>0.36</v>
       </c>
       <c r="L2" t="n">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="M2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1329,16 +1329,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.13</v>
+        <v>0.52</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.56</v>
+        <v>0.84</v>
       </c>
       <c r="K4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1405,13 +1405,13 @@
         <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>3.51</v>
+        <v>2.93</v>
       </c>
       <c r="E5" t="n">
-        <v>2.35</v>
+        <v>1.11</v>
       </c>
       <c r="F5" t="n">
-        <v>1.01</v>
+        <v>0.02</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.02</v>
+        <v>1.35</v>
       </c>
       <c r="K5" t="n">
-        <v>0.77</v>
+        <v>0.19</v>
       </c>
       <c r="L5" t="n">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="M5" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1452,37 +1452,37 @@
         <v>93</v>
       </c>
       <c r="D6" t="n">
-        <v>3.73</v>
+        <v>3.09</v>
       </c>
       <c r="E6" t="n">
-        <v>2.66</v>
+        <v>1.39</v>
       </c>
       <c r="F6" t="n">
-        <v>1.48</v>
+        <v>0.24</v>
       </c>
       <c r="G6" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.42</v>
+        <v>1.7</v>
       </c>
       <c r="K6" t="n">
-        <v>1.19</v>
+        <v>0.5</v>
       </c>
       <c r="L6" t="n">
-        <v>0.54</v>
+        <v>0.08</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1499,34 +1499,34 @@
         <v>94</v>
       </c>
       <c r="D7" t="n">
-        <v>3.02</v>
+        <v>2.44</v>
       </c>
       <c r="E7" t="n">
-        <v>1.89</v>
+        <v>0.93</v>
       </c>
       <c r="F7" t="n">
-        <v>0.89</v>
+        <v>0.17</v>
       </c>
       <c r="G7" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.97</v>
+        <v>1.23</v>
       </c>
       <c r="K7" t="n">
-        <v>0.77</v>
+        <v>0.18</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2</v>
+        <v>0.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1546,34 +1546,34 @@
         <v>96</v>
       </c>
       <c r="D8" t="n">
-        <v>2.61</v>
+        <v>2.24</v>
       </c>
       <c r="E8" t="n">
-        <v>1.9</v>
+        <v>1.12</v>
       </c>
       <c r="F8" t="n">
-        <v>1.09</v>
+        <v>0.16</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.28</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.82</v>
-      </c>
       <c r="L8" t="n">
-        <v>0.27</v>
+        <v>0.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1593,13 +1593,13 @@
         <v>97</v>
       </c>
       <c r="D9" t="n">
-        <v>3.03</v>
+        <v>2.61</v>
       </c>
       <c r="E9" t="n">
-        <v>2.13</v>
+        <v>1.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.12</v>
+        <v>0.35</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1611,16 +1611,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.99</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>2.68</v>
+        <v>1.38</v>
       </c>
       <c r="L9" t="n">
-        <v>1.36</v>
+        <v>0.3</v>
       </c>
       <c r="M9" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1640,16 +1640,16 @@
         <v>98</v>
       </c>
       <c r="D10" t="n">
-        <v>3.03</v>
+        <v>2.76</v>
       </c>
       <c r="E10" t="n">
-        <v>2.32</v>
+        <v>1.76</v>
       </c>
       <c r="F10" t="n">
-        <v>1.53</v>
+        <v>0.81</v>
       </c>
       <c r="G10" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1658,16 +1658,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.73</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
       <c r="L10" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1687,16 +1687,16 @@
         <v>99</v>
       </c>
       <c r="D11" t="n">
-        <v>2.9</v>
+        <v>2.57</v>
       </c>
       <c r="E11" t="n">
-        <v>2.1</v>
+        <v>1.43</v>
       </c>
       <c r="F11" t="n">
-        <v>1.21</v>
+        <v>0.45</v>
       </c>
       <c r="G11" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1705,16 +1705,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.66</v>
+        <v>0.79</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>3.73</v>
+        <v>3.28</v>
       </c>
       <c r="E12" t="n">
-        <v>2.83</v>
+        <v>1.89</v>
       </c>
       <c r="F12" t="n">
-        <v>1.79</v>
+        <v>0.68</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1752,19 +1752,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.64</v>
+        <v>5.51</v>
       </c>
       <c r="K12" t="n">
-        <v>5.13</v>
+        <v>2.8</v>
       </c>
       <c r="L12" t="n">
-        <v>3.38</v>
+        <v>0.77</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1799,16 +1799,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.85</v>
+        <v>0.91</v>
       </c>
       <c r="K13" t="n">
-        <v>0.32</v>
+        <v>0.05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1828,37 +1828,37 @@
         <v>103</v>
       </c>
       <c r="D14" t="n">
-        <v>4.92</v>
+        <v>3.23</v>
       </c>
       <c r="E14" t="n">
-        <v>3.58</v>
+        <v>1.42</v>
       </c>
       <c r="F14" t="n">
-        <v>2.01</v>
+        <v>0.38</v>
       </c>
       <c r="G14" t="n">
-        <v>5.35</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.59</v>
+        <v>1.62</v>
       </c>
       <c r="K14" t="n">
-        <v>1.03</v>
+        <v>0.29</v>
       </c>
       <c r="L14" t="n">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="M14" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1875,37 +1875,37 @@
         <v>104</v>
       </c>
       <c r="D15" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="E15" t="n">
-        <v>2.68</v>
+        <v>1.35</v>
       </c>
       <c r="F15" t="n">
-        <v>1.28</v>
+        <v>0.23</v>
       </c>
       <c r="G15" t="n">
-        <v>5.58</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3.16</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.41</v>
+        <v>1.37</v>
       </c>
       <c r="K15" t="n">
-        <v>0.86</v>
+        <v>0.17</v>
       </c>
       <c r="L15" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         <v>105</v>
       </c>
       <c r="D16" t="n">
-        <v>3.16</v>
+        <v>2.72</v>
       </c>
       <c r="E16" t="n">
-        <v>2.28</v>
+        <v>1.42</v>
       </c>
       <c r="F16" t="n">
-        <v>1.32</v>
+        <v>0.33</v>
       </c>
       <c r="G16" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1940,19 +1940,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.04</v>
+        <v>1.33</v>
       </c>
       <c r="K16" t="n">
-        <v>0.77</v>
+        <v>0.23</v>
       </c>
       <c r="L16" t="n">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="M16" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1969,13 +1969,13 @@
         <v>107</v>
       </c>
       <c r="D17" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="E17" t="n">
-        <v>2.39</v>
+        <v>1.64</v>
       </c>
       <c r="F17" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1987,19 +1987,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.76</v>
+        <v>2.1</v>
       </c>
       <c r="K17" t="n">
-        <v>1.56</v>
+        <v>0.74</v>
       </c>
       <c r="L17" t="n">
-        <v>0.62</v>
+        <v>0.08</v>
       </c>
       <c r="M17" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>108</v>
       </c>
       <c r="D18" t="n">
-        <v>3.52</v>
+        <v>3.05</v>
       </c>
       <c r="E18" t="n">
-        <v>2.53</v>
+        <v>1.54</v>
       </c>
       <c r="F18" t="n">
-        <v>1.42</v>
+        <v>0.36</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2034,16 +2034,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.9</v>
+        <v>2.07</v>
       </c>
       <c r="K18" t="n">
-        <v>1.64</v>
+        <v>0.55</v>
       </c>
       <c r="L18" t="n">
-        <v>0.72</v>
+        <v>0.03</v>
       </c>
       <c r="M18" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2063,40 +2063,40 @@
         <v>109</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>3.49</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>1.91</v>
       </c>
       <c r="F19" t="n">
-        <v>1.83</v>
+        <v>0.5</v>
       </c>
       <c r="G19" t="n">
-        <v>8.15</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.92</v>
+        <v>3.96</v>
       </c>
       <c r="K19" t="n">
-        <v>3.44</v>
+        <v>1.55</v>
       </c>
       <c r="L19" t="n">
-        <v>1.82</v>
+        <v>0.2</v>
       </c>
       <c r="M19" t="n">
-        <v>5.88</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>3.89</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.27</v>
+        <v>0.4</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2157,13 +2157,13 @@
         <v>112</v>
       </c>
       <c r="D21" t="n">
-        <v>2.92</v>
+        <v>2.16</v>
       </c>
       <c r="E21" t="n">
-        <v>1.62</v>
+        <v>0.55</v>
       </c>
       <c r="F21" t="n">
-        <v>0.57</v>
+        <v>0.11</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2175,16 +2175,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.21</v>
+        <v>2.41</v>
       </c>
       <c r="K21" t="n">
-        <v>1.77</v>
+        <v>1.09</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>0.41</v>
       </c>
       <c r="M21" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2204,16 +2204,16 @@
         <v>113</v>
       </c>
       <c r="D22" t="n">
-        <v>3.28</v>
+        <v>2.01</v>
       </c>
       <c r="E22" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2222,16 +2222,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.84</v>
+        <v>0.58</v>
       </c>
       <c r="K22" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>114</v>
       </c>
       <c r="D23" t="n">
-        <v>3.35</v>
+        <v>2.7</v>
       </c>
       <c r="E23" t="n">
-        <v>2.08</v>
+        <v>0.73</v>
       </c>
       <c r="F23" t="n">
-        <v>0.66</v>
+        <v>0.06</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2269,19 +2269,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.43</v>
+        <v>1.22</v>
       </c>
       <c r="K23" t="n">
-        <v>0.71</v>
+        <v>0.1</v>
       </c>
       <c r="L23" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="M23" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
